--- a/E2E/Web/Web_E2E_Mod_UserRegistration/Default.xlsx
+++ b/E2E/Web/Web_E2E_Mod_UserRegistration/Default.xlsx
@@ -1027,9 +1027,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>agus.pratama105@example.com</t>
-  </si>
-  <si>
     <t>agus.nugroho73@example.com</t>
   </si>
   <si>
@@ -1097,6 +1094,9 @@
   </si>
   <si>
     <t>dianharahap9</t>
+  </si>
+  <si>
+    <t>agus.pratama107@example.com</t>
   </si>
   <si>
     <t>budi.lim29@example.com</t>
@@ -1679,7 +1679,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -1714,7 +1714,7 @@
         <v>373</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>298</v>
@@ -1749,7 +1749,7 @@
         <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>232</v>
@@ -1773,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L2" s="4">
         <v>63877</v>
@@ -1808,7 +1808,7 @@
         <v>173</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3" s="4">
         <v>628147303132</v>
@@ -1823,7 +1823,7 @@
         <v>236</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L3" s="4">
         <v>31769</v>
@@ -1973,7 +1973,7 @@
         <v>238</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L6" s="4">
         <v>64113</v>
@@ -2320,7 +2320,7 @@
         <v>125</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>19</v>
@@ -2373,7 +2373,7 @@
         <v>239</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L14" s="4">
         <v>82659</v>
@@ -2423,7 +2423,7 @@
         <v>326</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L15" s="4">
         <v>34533</v>
@@ -2473,7 +2473,7 @@
         <v>374</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L16" s="4">
         <v>25313</v>
@@ -2623,7 +2623,7 @@
         <v>240</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L19" s="4">
         <v>45752</v>
@@ -3020,7 +3020,7 @@
         <v>325</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>289</v>
@@ -3073,7 +3073,7 @@
         <v>327</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L28" s="4">
         <v>88449</v>
@@ -3123,7 +3123,7 @@
         <v>40</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L29" s="4">
         <v>64746</v>
@@ -3173,7 +3173,7 @@
         <v>128</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L30" s="4">
         <v>85811</v>
@@ -3223,7 +3223,7 @@
         <v>176</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L31" s="4">
         <v>74972</v>
@@ -3323,7 +3323,7 @@
         <v>62</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L33" s="4">
         <v>37901</v>
@@ -3370,10 +3370,10 @@
         <v>284</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L34" s="4">
         <v>48445</v>
@@ -3396,7 +3396,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>168</v>
@@ -3423,7 +3423,7 @@
         <v>103</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L35" s="4">
         <v>16134</v>
@@ -3473,7 +3473,7 @@
         <v>41</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L36" s="4">
         <v>15135</v>
@@ -3499,7 +3499,7 @@
         <v>187</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>232</v>
@@ -3523,7 +3523,7 @@
         <v>42</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L37" s="4">
         <v>61650</v>
@@ -3546,7 +3546,7 @@
         <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>296</v>
@@ -3573,7 +3573,7 @@
         <v>43</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L38" s="4">
         <v>40613</v>
@@ -3623,7 +3623,7 @@
         <v>210</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L39" s="4">
         <v>22494</v>
@@ -3723,7 +3723,7 @@
         <v>154</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L41" s="4">
         <v>70353</v>
@@ -3746,7 +3746,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>171</v>
@@ -3823,7 +3823,7 @@
         <v>130</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L43" s="4">
         <v>67645</v>
@@ -4223,7 +4223,7 @@
         <v>131</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L51" s="4">
         <v>81629</v>
@@ -4249,7 +4249,7 @@
         <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>232</v>
@@ -4749,7 +4749,7 @@
         <v>245</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>232</v>
@@ -4773,7 +4773,7 @@
         <v>301</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L62" s="4">
         <v>53063</v>
@@ -4823,7 +4823,7 @@
         <v>17</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L63" s="4">
         <v>53612</v>
@@ -5020,7 +5020,7 @@
         <v>13</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>109</v>
@@ -5149,7 +5149,7 @@
         <v>72</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>232</v>
@@ -5273,7 +5273,7 @@
         <v>378</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L72" s="4">
         <v>75368</v>
@@ -5296,7 +5296,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>279</v>
@@ -5323,7 +5323,7 @@
         <v>302</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L73" s="4">
         <v>51931</v>
@@ -5373,7 +5373,7 @@
         <v>65</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L74" s="4">
         <v>60425</v>
@@ -5423,7 +5423,7 @@
         <v>130</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L75" s="4">
         <v>34249</v>
@@ -5470,7 +5470,7 @@
         <v>325</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>289</v>
@@ -5646,10 +5646,10 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>232</v>
@@ -5723,7 +5723,7 @@
         <v>18</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L81" s="4">
         <v>18631</v>
@@ -5773,7 +5773,7 @@
         <v>183</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L82" s="4">
         <v>58937</v>
@@ -5873,7 +5873,7 @@
         <v>134</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L84" s="4">
         <v>12040</v>
@@ -5923,7 +5923,7 @@
         <v>157</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L85" s="4">
         <v>36695</v>
@@ -6023,7 +6023,7 @@
         <v>135</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L87" s="4">
         <v>43524</v>
@@ -6070,7 +6070,7 @@
         <v>38</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>160</v>
@@ -6220,7 +6220,7 @@
         <v>125</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>19</v>
@@ -6255,7 +6255,7 @@
         <v>232</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>323</v>
@@ -6308,7 +6308,7 @@
         <v>78</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G93" s="4">
         <v>628170565757</v>
@@ -6573,7 +6573,7 @@
         <v>380</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L98" s="4">
         <v>12789</v>
@@ -6605,7 +6605,7 @@
         <v>232</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>203</v>
@@ -6620,7 +6620,7 @@
         <v>13</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>109</v>
@@ -6673,7 +6673,7 @@
         <v>108</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L100" s="4">
         <v>72336</v>
@@ -6723,7 +6723,7 @@
         <v>67</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L101" s="4">
         <v>69707</v>
